--- a/DOWDOI-B777_B787.xlsx
+++ b/DOWDOI-B777_B787.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lufthansagroup.sharepoint.com/sites/OpsEng-Vorlage/Shared Documents/B777/02 W&amp;B/04 PilotsTool/WIP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{29BFE16C-AB17-44FE-98A8-EC4877A72DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E841197C-0174-42C8-96F5-C8CC69F4066D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{318418DD-5C1D-DF4F-9DA8-6293EFD16988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="133">
   <si>
     <t>Cockpit</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/0ab9eabe526832b8c3c8f7e145ed8dee</t>
+  </si>
+  <si>
+    <t>LTS:</t>
   </si>
 </sst>
 </file>
@@ -678,10 +681,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,21 +974,21 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="B15:H15"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" customWidth="1"/>
-    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -999,7 +998,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -1012,11 +1011,8 @@
       <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1033,8 +1029,14 @@
       <c r="L3">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>77215</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>77216</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>77218</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>77219</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>77220</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>105</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>107</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -1309,67 +1311,67 @@
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E17" s="1"/>
       <c r="G17" s="3"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E25" s="1"/>
       <c r="G25" s="3"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E27" s="1"/>
       <c r="G27" s="3"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1377,7 +1379,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>45566</v>
       </c>
@@ -1388,7 +1390,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>45618</v>
       </c>
@@ -1399,7 +1401,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>45642</v>
       </c>
@@ -1410,7 +1412,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>45673</v>
       </c>
@@ -1421,7 +1423,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>45726</v>
       </c>
@@ -1432,7 +1434,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>45729</v>
       </c>
@@ -1443,7 +1445,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>45740</v>
       </c>
@@ -1454,7 +1456,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>45775</v>
       </c>
@@ -1465,7 +1467,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>45782</v>
       </c>
@@ -1473,10 +1475,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
     </row>
   </sheetData>
@@ -1497,20 +1499,20 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1563,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1613,7 @@
       <c r="W4" s="22"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1662,7 @@
       <c r="W5" s="22"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1711,7 @@
       <c r="W6" s="22"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
@@ -1758,7 +1760,7 @@
       <c r="W7" s="22"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
@@ -1806,7 +1808,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
@@ -1854,7 +1856,7 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
@@ -1902,7 +1904,7 @@
       <c r="V10" s="21"/>
       <c r="W10" s="22"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>71</v>
       </c>
@@ -1950,7 +1952,7 @@
       <c r="V11" s="21"/>
       <c r="W11" s="22"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>72</v>
       </c>
@@ -1998,7 +2000,7 @@
       <c r="V12" s="21"/>
       <c r="W12" s="22"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
         <v>73</v>
       </c>
@@ -2037,7 +2039,7 @@
       <c r="V13" s="21"/>
       <c r="W13" s="22"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
@@ -2079,7 +2081,7 @@
       <c r="V14" s="21"/>
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
         <v>75</v>
       </c>
@@ -2121,7 +2123,7 @@
       <c r="V15" s="21"/>
       <c r="W15" s="22"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2165,7 @@
       <c r="V16" s="21"/>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>45</v>
       </c>
@@ -2205,7 +2207,7 @@
       <c r="V17" s="21"/>
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2246,7 @@
       <c r="V18" s="21"/>
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
@@ -2275,7 +2277,7 @@
       <c r="V19" s="21"/>
       <c r="W19" s="22"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="V20" s="21"/>
       <c r="W20" s="22"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>49</v>
       </c>
@@ -2335,7 +2337,7 @@
       <c r="V21" s="21"/>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
@@ -2362,7 +2364,7 @@
       <c r="V22" s="21"/>
       <c r="W22" s="22"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -2389,7 +2391,7 @@
       <c r="V23" s="21"/>
       <c r="W23" s="22"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -2416,7 +2418,7 @@
       <c r="V24" s="21"/>
       <c r="W24" s="22"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>79</v>
       </c>
@@ -2443,7 +2445,7 @@
       <c r="V25" s="21"/>
       <c r="W25" s="22"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -2472,7 +2474,7 @@
       <c r="V26" s="21"/>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -2501,7 +2503,7 @@
       <c r="V27" s="21"/>
       <c r="W27" s="22"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -2530,7 +2532,7 @@
       <c r="V28" s="21"/>
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -2564,7 +2566,7 @@
       <c r="V29" s="21"/>
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -2598,7 +2600,7 @@
       <c r="V30" s="21"/>
       <c r="W30" s="22"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -2632,7 +2634,7 @@
       <c r="V31" s="21"/>
       <c r="W31" s="22"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="V32" s="21"/>
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>81</v>
       </c>
@@ -2700,7 +2702,7 @@
       <c r="V33" s="16"/>
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -2734,7 +2736,7 @@
       <c r="V34" s="16"/>
       <c r="W34" s="22"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>83</v>
       </c>
@@ -2768,7 +2770,7 @@
       <c r="V35" s="16"/>
       <c r="W35" s="22"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>84</v>
       </c>
@@ -2802,7 +2804,7 @@
       <c r="V36" s="16"/>
       <c r="W36" s="22"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>85</v>
       </c>
@@ -2836,7 +2838,7 @@
       <c r="V37" s="16"/>
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2853,7 +2855,7 @@
       <c r="V38" s="16"/>
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2870,7 +2872,7 @@
       <c r="V39" s="16"/>
       <c r="W39" s="22"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2887,7 +2889,7 @@
       <c r="V40" s="16"/>
       <c r="W40" s="22"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2904,7 +2906,7 @@
       <c r="V41" s="16"/>
       <c r="W41" s="22"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2921,7 +2923,7 @@
       <c r="V42" s="16"/>
       <c r="W42" s="22"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2938,7 +2940,7 @@
       <c r="V43" s="16"/>
       <c r="W43" s="22"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2955,7 +2957,7 @@
       <c r="V44" s="16"/>
       <c r="W44" s="22"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2964,7 +2966,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2973,59 +2975,59 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="12:13" x14ac:dyDescent="0.15">
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
@@ -3043,16 +3045,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -3149,7 +3151,7 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -3196,7 +3198,7 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
@@ -3243,7 +3245,7 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
@@ -3290,7 +3292,7 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>-3.16E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
@@ -3382,7 +3384,7 @@
         <v>-2.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
@@ -3428,7 +3430,7 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>71</v>
       </c>
@@ -3474,7 +3476,7 @@
         <v>-1.98E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>72</v>
       </c>
@@ -3520,7 +3522,7 @@
         <v>-1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
         <v>73</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>-1.41E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
         <v>75</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>-1.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>45</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>-8.8000000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
@@ -3776,7 +3778,7 @@
         <v>-5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>49</v>
       </c>
@@ -3830,7 +3832,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>-9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -3878,7 +3880,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>79</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -3978,7 +3980,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -4004,7 +4006,7 @@
         <v>8.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -4067,7 +4069,7 @@
         <v>1.47E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>81</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -4191,7 +4193,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>83</v>
       </c>
@@ -4222,7 +4224,7 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>84</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>2.4099999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>85</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -4299,7 +4301,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -4314,7 +4316,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -4329,7 +4331,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -4344,7 +4346,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -4359,7 +4361,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -4374,7 +4376,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -4389,7 +4391,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4398,7 +4400,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4421,16 +4423,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -4479,7 +4481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4527,7 +4529,7 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -4574,7 +4576,7 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
@@ -4621,7 +4623,7 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
@@ -4668,7 +4670,7 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>-3.15E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
@@ -4760,7 +4762,7 @@
         <v>-2.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>71</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>-1.98E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>72</v>
       </c>
@@ -4898,7 +4900,7 @@
         <v>-1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
         <v>73</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>-1.4E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
         <v>75</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>-1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>45</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>-8.8000000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>-5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>49</v>
       </c>
@@ -5208,7 +5210,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>-9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>79</v>
       </c>
@@ -5304,7 +5306,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -5330,7 +5332,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>8.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>1.47E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -5476,7 +5478,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -5507,7 +5509,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>81</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -5569,7 +5571,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>83</v>
       </c>
@@ -5600,7 +5602,7 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>84</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>2.4099999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>85</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -5677,7 +5679,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5692,7 +5694,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -5707,7 +5709,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5722,7 +5724,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -5737,7 +5739,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -5752,7 +5754,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5767,7 +5769,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -5776,7 +5778,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -5799,17 +5801,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -5817,7 +5819,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -5906,7 +5908,7 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -5953,7 +5955,7 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -6000,7 +6002,7 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>41</v>
       </c>
@@ -6047,7 +6049,7 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>-3.14E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>-2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>44</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -6232,7 +6234,7 @@
       </c>
       <c r="V11" s="15"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>72</v>
       </c>
@@ -6279,7 +6281,7 @@
       </c>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>73</v>
       </c>
@@ -6316,7 +6318,7 @@
       </c>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>74</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>-1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>75</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>-1.17E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -6433,7 +6435,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>-8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -6508,7 +6510,7 @@
         <v>-6.8000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>-5.1999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -6563,7 +6565,7 @@
         <v>-3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>-2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>76</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -6662,7 +6664,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>79</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -6719,7 +6721,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -6777,7 +6779,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -6902,7 +6904,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>81</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>83</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>84</v>
       </c>
@@ -7026,7 +7028,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>85</v>
       </c>
@@ -7057,7 +7059,7 @@
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I38" s="3"/>
       <c r="J38" s="23"/>
       <c r="K38" s="24"/>
@@ -7072,7 +7074,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -7087,7 +7089,7 @@
         <v>2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -7102,7 +7104,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -7117,7 +7119,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -7132,7 +7134,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -7147,7 +7149,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -7162,7 +7164,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -7171,7 +7173,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -7194,16 +7196,16 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -7300,7 +7302,7 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -7347,7 +7349,7 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
@@ -7394,7 +7396,7 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
@@ -7441,7 +7443,7 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
@@ -7487,7 +7489,7 @@
         <v>-3.14E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>-2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>71</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>-1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>72</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>-1.74E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
         <v>73</v>
       </c>
@@ -7707,7 +7709,7 @@
         <v>-1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>-1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
         <v>75</v>
       </c>
@@ -7785,7 +7787,7 @@
         <v>-1.17E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
@@ -7824,7 +7826,7 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>45</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>-8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>-6.8000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
@@ -7927,7 +7929,7 @@
         <v>-5.1999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>48</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>-3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>49</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>-2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>76</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>77</v>
       </c>
@@ -8029,7 +8031,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>78</v>
       </c>
@@ -8053,7 +8055,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>79</v>
       </c>
@@ -8077,7 +8079,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>51</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -8218,7 +8220,7 @@
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>54</v>
       </c>
@@ -8249,7 +8251,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -8280,7 +8282,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>81</v>
       </c>
@@ -8311,7 +8313,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -8342,7 +8344,7 @@
         <v>2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>83</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>84</v>
       </c>
@@ -8404,7 +8406,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>85</v>
       </c>
@@ -8435,7 +8437,7 @@
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -8450,7 +8452,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -8465,7 +8467,7 @@
         <v>2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -8480,7 +8482,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -8495,7 +8497,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -8510,7 +8512,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -8525,7 +8527,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -8540,7 +8542,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -8549,7 +8551,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -8572,16 +8574,16 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -8630,7 +8632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -8678,7 +8680,7 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
@@ -8725,7 +8727,7 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
@@ -8772,7 +8774,7 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
@@ -8819,7 +8821,7 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>-3.13E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
@@ -8911,7 +8913,7 @@
         <v>-2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>-2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>-1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
@@ -9050,7 +9052,7 @@
         <v>-1.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
         <v>46</v>
       </c>
@@ -9077,7 +9079,7 @@
         <v>-1.32E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
@@ -9100,7 +9102,7 @@
         <v>-1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15" s="11" t="s">
         <v>48</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>-8.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>49</v>
       </c>
@@ -9150,7 +9152,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>-5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>51</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>52</v>
       </c>
@@ -9231,7 +9233,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>53</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>-9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>54</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>55</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="T23" s="10">
         <v>22</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="T24" s="10">
         <v>23</v>
       </c>
@@ -9322,7 +9324,7 @@
         <v>5.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="T25" s="10">
         <v>24</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I26" s="3"/>
       <c r="J26" s="13"/>
       <c r="T26" s="10">
@@ -9340,7 +9342,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I27" s="3"/>
       <c r="J27" s="13"/>
       <c r="T27" s="10">
@@ -9350,7 +9352,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I28" s="3"/>
       <c r="J28" s="13"/>
       <c r="T28" s="10">
@@ -9360,7 +9362,7 @@
         <v>1.4400000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -9376,7 +9378,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -9391,7 +9393,7 @@
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -9406,7 +9408,7 @@
         <v>1.91E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -9421,7 +9423,7 @@
         <v>2.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -9436,7 +9438,7 @@
         <v>2.2300000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -9451,7 +9453,7 @@
         <v>2.3900000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -9466,7 +9468,7 @@
         <v>2.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -9481,7 +9483,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -9496,7 +9498,7 @@
         <v>2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -9511,7 +9513,7 @@
         <v>3.0100000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -9526,7 +9528,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -9541,7 +9543,7 @@
         <v>3.3300000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -9556,7 +9558,7 @@
         <v>3.48E-3</v>
       </c>
     </row>
-    <row r="42" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -9571,7 +9573,7 @@
         <v>3.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -9586,7 +9588,7 @@
         <v>3.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -9595,7 +9597,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -9604,7 +9606,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="9:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:21" x14ac:dyDescent="0.15">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -9619,6 +9621,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="76e64edb-32a9-4bd8-890d-966d9c8cf775" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bde7285c-543e-4d4d-895c-5ed4d7e37669">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DA7076DB38B3440BB574BC603F37FD2" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b9f19aadfb3d52754bb5ed88d8087a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bde7285c-543e-4d4d-895c-5ed4d7e37669" xmlns:ns3="76e64edb-32a9-4bd8-890d-966d9c8cf775" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a41b2142534db4db9e5f9b6fa67decc0" ns2:_="" ns3:_="">
     <xsd:import namespace="bde7285c-543e-4d4d-895c-5ed4d7e37669"/>
@@ -9813,27 +9835,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70DE23E-6E6B-498E-8A39-4CE4523AC3F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="76e64edb-32a9-4bd8-890d-966d9c8cf775"/>
+    <ds:schemaRef ds:uri="bde7285c-543e-4d4d-895c-5ed4d7e37669"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="76e64edb-32a9-4bd8-890d-966d9c8cf775" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bde7285c-543e-4d4d-895c-5ed4d7e37669">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FED7717-A765-4685-A00E-1C9CE0F8541A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A22133-F215-4C3A-9C62-5E1A30DD625B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9852,25 +9873,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FED7717-A765-4685-A00E-1C9CE0F8541A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70DE23E-6E6B-498E-8A39-4CE4523AC3F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76e64edb-32a9-4bd8-890d-966d9c8cf775"/>
-    <ds:schemaRef ds:uri="bde7285c-543e-4d4d-895c-5ed4d7e37669"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{2d1c7476-f302-47ca-97a0-972f32671471}" enabled="1" method="Standard" siteId="{72e15514-5be9-46a8-8b0b-af9b1b77b3b8}" contentBits="0" removed="0"/>

--- a/DOWDOI-B777_B787.xlsx
+++ b/DOWDOI-B777_B787.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egon/Development/FlutterProjects/dowdoi/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{318418DD-5C1D-DF4F-9DA8-6293EFD16988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F5733-D759-E043-9DE7-E3B50F89679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="134">
   <si>
     <t>Cockpit</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>LTS:</t>
+  </si>
+  <si>
+    <t>NIL</t>
   </si>
 </sst>
 </file>
@@ -974,7 +977,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1102,9 +1105,6 @@
       <c r="A6">
         <v>77215</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
@@ -1243,6 +1243,9 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1316,62 +1319,65 @@
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E17" s="1"/>
       <c r="G17" s="3"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="P18" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E25" s="1"/>
       <c r="G25" s="3"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E27" s="1"/>
       <c r="G27" s="3"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1379,7 +1385,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>45566</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>45618</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>45642</v>
       </c>
@@ -1412,7 +1418,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>45673</v>
       </c>
@@ -9621,6 +9627,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="76e64edb-32a9-4bd8-890d-966d9c8cf775" xsi:nil="true"/>
@@ -9629,15 +9644,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9836,20 +9842,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FED7717-A765-4685-A00E-1C9CE0F8541A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70DE23E-6E6B-498E-8A39-4CE4523AC3F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="76e64edb-32a9-4bd8-890d-966d9c8cf775"/>
     <ds:schemaRef ds:uri="bde7285c-543e-4d4d-895c-5ed4d7e37669"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FED7717-A765-4685-A00E-1C9CE0F8541A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DOWDOI-B777_B787.xlsx
+++ b/DOWDOI-B777_B787.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29301"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egon/Development/FlutterProjects/dowdoi/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vvieosperf01\c$\inetpub\wwwroot\DOWDOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F5733-D759-E043-9DE7-E3B50F89679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF240FE5-B8FB-46E4-8F17-85AFB3790518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="3" r:id="rId1"/>
@@ -28,9 +28,12 @@
     <definedName name="F">[1]general!$G$11</definedName>
     <definedName name="RefSt">[1]general!$G$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -47,15 +50,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="133">
+  <si>
+    <t>Data issue</t>
+  </si>
+  <si>
+    <t>Boeing 777, 787</t>
+  </si>
+  <si>
+    <t>FleetWeight (AHM565 -E Sheet 5, 2.7.1)</t>
+  </si>
+  <si>
+    <t>Crewweight (AHM 565-B Sheet 2, 2.1)</t>
+  </si>
+  <si>
+    <t>PEGMA Links</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_4d742f55-e0f6-438c-9001-d043b78264d4</t>
+  </si>
+  <si>
+    <t>Tablerange:</t>
+  </si>
+  <si>
+    <t>C6:G14</t>
+  </si>
+  <si>
+    <t>Default:</t>
+  </si>
   <si>
     <t>Cockpit</t>
   </si>
   <si>
+    <t xml:space="preserve">Fleetweight </t>
+  </si>
+  <si>
+    <t>OE-LPA</t>
+  </si>
+  <si>
     <t>Cabin</t>
   </si>
   <si>
-    <t>Crewweight (AHM 565-B Sheet 2, 2.1)</t>
+    <t>PantryList:</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_5c1efcf7-4654-40f1-bfee-6b4d228128a7</t>
+  </si>
+  <si>
+    <t>CVERS</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Weight</t>
@@ -64,141 +115,276 @@
     <t>Index</t>
   </si>
   <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>XCR</t>
+  </si>
+  <si>
+    <t>Charter pantry</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_8b969bd4-ded3-4f36-a495-7a8e0329f1c2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/96ddce6f94546acd4b6c8068b7642d2c</t>
+  </si>
+  <si>
+    <t>OE-LPB</t>
+  </si>
+  <si>
+    <t>CrewBag</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/78cc4a3c445961e0dba798d417ce18f8</t>
+  </si>
+  <si>
+    <t>OE-LPC</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/579718907a69837db3d0394b78e2bcdb</t>
+  </si>
+  <si>
+    <t>OE-LPD</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/0ab9eabe526832b8c3c8f7e145ed8dee</t>
+  </si>
+  <si>
+    <t>OE-LPE</t>
+  </si>
+  <si>
+    <t>https://osperf.one-intra.net/DOWDOI/DOWDOI-B777_B787.xlsx</t>
+  </si>
+  <si>
+    <t>B78A01</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>OE-LPF</t>
+  </si>
+  <si>
+    <t>OE-LPL</t>
+  </si>
+  <si>
+    <t>OE-LPM</t>
+  </si>
+  <si>
+    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/1cfd69bbfd3655f7f1dd553916446174</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Initial issue</t>
+  </si>
+  <si>
+    <t>LPA BW/BI update</t>
+  </si>
+  <si>
+    <t>LPC BW/BI update</t>
+  </si>
+  <si>
+    <t>Pantry update</t>
+  </si>
+  <si>
+    <t>COMBINING B787 and B777</t>
+  </si>
+  <si>
+    <t>Crewcode (AHM 565-E Sheet 2, 2.2)</t>
+  </si>
+  <si>
+    <t>Pantry (AHM 565-E Sheet 2, 2.3)</t>
+  </si>
+  <si>
+    <t>Special (AHM 565-E Sheet 3, 2.5)</t>
+  </si>
+  <si>
+    <t>B5:F37</t>
+  </si>
+  <si>
+    <t>I5:M18</t>
+  </si>
+  <si>
+    <t>O5:Q12</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>I.U./KG</t>
+  </si>
+  <si>
+    <t>Crew code</t>
+  </si>
+  <si>
+    <t>Flight Deck</t>
+  </si>
+  <si>
+    <t>Cabin*</t>
+  </si>
+  <si>
+    <t>Weight corr.</t>
+  </si>
+  <si>
+    <t>Index corr.</t>
+  </si>
+  <si>
+    <t>Pantry Code</t>
+  </si>
+  <si>
+    <t>Total Weight</t>
+  </si>
+  <si>
+    <t>Overall index / H-arm</t>
+  </si>
+  <si>
     <t>CSU/ICE</t>
   </si>
   <si>
-    <t>Pantry (AHM 565-E Sheet 2, 2.3)</t>
-  </si>
-  <si>
-    <t>Crewcode (AHM 565-E Sheet 2, 2.2)</t>
-  </si>
-  <si>
-    <t>Crew code</t>
-  </si>
-  <si>
-    <t>Flight Deck</t>
-  </si>
-  <si>
-    <t>Cabin*</t>
-  </si>
-  <si>
-    <t>Weight corr.</t>
-  </si>
-  <si>
-    <t>Index corr.</t>
+    <t>Crew Bag (x)</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Pantry Code</t>
-  </si>
-  <si>
-    <t>Total Weight</t>
-  </si>
-  <si>
-    <t>Overall index / H-arm</t>
+    <t>2/0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>STRETCHER</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>WATER 3/8</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>WATER 5/8</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>WATER 6/8</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>WATER 7/8</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>WATER 8/8</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>WATER EMPTY</t>
+  </si>
+  <si>
+    <t>2/13</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>2/14</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>2/15</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>3/0</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>3/7</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>Reg</t>
-  </si>
-  <si>
-    <t>CVERS</t>
-  </si>
-  <si>
-    <t>Effective</t>
-  </si>
-  <si>
-    <t>FleetWeight (AHM565 -E Sheet 5, 2.7.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleetweight </t>
-  </si>
-  <si>
-    <t>2/0</t>
-  </si>
-  <si>
-    <t>3/0</t>
-  </si>
-  <si>
-    <t>Tablerange:</t>
-  </si>
-  <si>
-    <t>XCR</t>
-  </si>
-  <si>
-    <t>I.U./KG</t>
-  </si>
-  <si>
-    <t>Crew Bag (x)</t>
-  </si>
-  <si>
-    <t>CrewBag</t>
-  </si>
-  <si>
-    <t>Data issue</t>
-  </si>
-  <si>
-    <t>Special (AHM 565-E Sheet 3, 2.5)</t>
-  </si>
-  <si>
-    <t>Default:</t>
-  </si>
-  <si>
-    <t>Issue</t>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>3/9</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>PEGMA Links</t>
-  </si>
-  <si>
-    <t>PantryList:</t>
-  </si>
-  <si>
-    <t>Charter pantry</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>Initial issue</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>2/8</t>
-  </si>
-  <si>
-    <t>2/9</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>3/8</t>
-  </si>
-  <si>
-    <t>3/9</t>
-  </si>
-  <si>
     <t>3/10</t>
   </si>
   <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>3/14</t>
+  </si>
+  <si>
+    <t>3/15</t>
+  </si>
+  <si>
     <t>4/0</t>
   </si>
   <si>
@@ -217,25 +403,19 @@
     <t>4/10</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>4/13</t>
+  </si>
+  <si>
+    <t>4/14</t>
+  </si>
+  <si>
+    <t>4/15</t>
   </si>
   <si>
     <t>O5:Q13</t>
@@ -244,144 +424,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>OE-LPA</t>
-  </si>
-  <si>
-    <t>OE-LPB</t>
-  </si>
-  <si>
-    <t>OE-LPC</t>
-  </si>
-  <si>
-    <t>OE-LPD</t>
-  </si>
-  <si>
-    <t>OE-LPE</t>
-  </si>
-  <si>
-    <t>OE-LPF</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>2/13</t>
-  </si>
-  <si>
-    <t>2/14</t>
-  </si>
-  <si>
-    <t>2/15</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>3/14</t>
-  </si>
-  <si>
-    <t>3/15</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>4/12</t>
-  </si>
-  <si>
-    <t>4/13</t>
-  </si>
-  <si>
-    <t>4/14</t>
-  </si>
-  <si>
-    <t>4/15</t>
-  </si>
-  <si>
-    <t>B5:F37</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>WATER 3/8</t>
-  </si>
-  <si>
-    <t>WATER 5/8</t>
-  </si>
-  <si>
-    <t>WATER 6/8</t>
-  </si>
-  <si>
-    <t>WATER 7/8</t>
-  </si>
-  <si>
-    <t>WATER 8/8</t>
-  </si>
-  <si>
-    <t>WATER EMPTY</t>
-  </si>
-  <si>
-    <t>STRETCHER</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>I5:M18</t>
-  </si>
-  <si>
-    <t>LPA BW/BI update</t>
-  </si>
-  <si>
-    <t>LPC BW/BI update</t>
-  </si>
-  <si>
-    <t>Pantry update</t>
-  </si>
-  <si>
-    <t>Boeing 777, 787</t>
-  </si>
-  <si>
-    <t>OE-LPL</t>
-  </si>
-  <si>
-    <t>B78A01</t>
-  </si>
-  <si>
-    <t>OE-LPM</t>
-  </si>
-  <si>
     <t>B5:F22</t>
   </si>
   <si>
     <t>I5:M12</t>
   </si>
   <si>
-    <t>O5:Q12</t>
-  </si>
-  <si>
     <t>Water 0l (0%)</t>
   </si>
   <si>
@@ -401,54 +449,6 @@
   </si>
   <si>
     <t>Water FULL</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_5c1efcf7-4654-40f1-bfee-6b4d228128a7</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_8b969bd4-ded3-4f36-a495-7a8e0329f1c2</t>
-  </si>
-  <si>
-    <t>C6:G14</t>
-  </si>
-  <si>
-    <t>https://osperf.one-intra.net/DOWDOI/DOWDOI-B777_B787.xlsx</t>
-  </si>
-  <si>
-    <t>LTS</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>COMBINING B787 and B777</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/1cfd69bbfd3655f7f1dd553916446174</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/96ddce6f94546acd4b6c8068b7642d2c</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/78cc4a3c445961e0dba798d417ce18f8</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/579718907a69837db3d0394b78e2bcdb</t>
-  </si>
-  <si>
-    <t>libraryapp://aua.pegma.app.lhgroup.de/#/doc/DOCID_fe6b47ce-99d8-439b-bcb2-f9f2397b3002/loc/0ab9eabe526832b8c3c8f7e145ed8dee</t>
-  </si>
-  <si>
-    <t>LTS:</t>
-  </si>
-  <si>
-    <t>NIL</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
     <numFmt numFmtId="168" formatCode="0\ &quot;kg&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00\ &quot;IU&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,18 +519,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -550,7 +544,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,7 +612,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,18 +654,7 @@
       <sheetName val="ERR SUM-MISC!"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="G8">
-            <v>17500</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11">
-            <v>550000</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
@@ -977,136 +959,137 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>45781</v>
+        <v>45910</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <v>85</v>
       </c>
-      <c r="P3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15">
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4"/>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>77215</v>
       </c>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>777</v>
@@ -1124,18 +1107,18 @@
         <v>45729</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>77216</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>777</v>
@@ -1159,15 +1142,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>77218</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>777</v>
@@ -1185,15 +1168,15 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>77219</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>777</v>
@@ -1211,15 +1194,15 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>77220</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>777</v>
@@ -1237,18 +1220,18 @@
         <v>45566</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>777</v>
@@ -1266,15 +1249,15 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="C12" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>787</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>123900</v>
@@ -1286,15 +1269,15 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="C13" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>787</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>124100</v>
@@ -1306,185 +1289,182 @@
         <v>45741</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
+      <c r="O15">
+        <v>77215</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="E16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="E17" s="1"/>
       <c r="G17" s="3"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="E18" s="1"/>
       <c r="G18" s="3"/>
       <c r="H18" s="5"/>
-      <c r="P18" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8">
       <c r="E19" s="1"/>
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="E20" s="1"/>
       <c r="G20" s="3"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="E21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="E22" s="1"/>
       <c r="G22" s="3"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="E23" s="1"/>
       <c r="G23" s="3"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="E24" s="1"/>
       <c r="G24" s="3"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="E25" s="1"/>
       <c r="G25" s="3"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="E26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="E27" s="1"/>
       <c r="G27" s="3"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1"/>
       <c r="G28" s="3"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="5">
         <v>45566</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1"/>
       <c r="G29" s="3"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="5">
         <v>45618</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1"/>
       <c r="G30" s="3"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="5">
         <v>45642</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1"/>
       <c r="G31" s="3"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="5">
         <v>45673</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="5">
         <v>45726</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1"/>
       <c r="G33" s="3"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" s="5">
         <v>45729</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1"/>
       <c r="G34" s="3"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="5">
         <v>45740</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1"/>
       <c r="G35" s="3"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="5">
         <v>45775</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1"/>
       <c r="G36" s="3"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="5">
         <v>45782</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" s="5"/>
     </row>
   </sheetData>
@@ -1505,109 +1485,109 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="23" max="23" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T4" s="10">
         <v>1</v>
@@ -1619,9 +1599,9 @@
       <c r="W4" s="22"/>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -1638,7 +1618,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
       <c r="I5" s="17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J5" s="18">
         <v>1157</v>
@@ -1650,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1668,9 +1648,9 @@
       <c r="W5" s="22"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -1687,7 +1667,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="8"/>
       <c r="I6" s="17" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J6" s="18">
         <v>1554</v>
@@ -1699,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <v>80</v>
@@ -1717,9 +1697,9 @@
       <c r="W6" s="22"/>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -1736,7 +1716,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="17" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J7" s="18">
         <v>1676</v>
@@ -1748,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P7">
         <v>-150</v>
@@ -1766,9 +1746,9 @@
       <c r="W7" s="22"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -1785,7 +1765,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="8"/>
       <c r="I8" s="17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18">
         <v>2087</v>
@@ -1797,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="P8">
         <v>150</v>
@@ -1814,9 +1794,9 @@
       <c r="V8" s="21"/>
       <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -1833,7 +1813,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
       <c r="I9" s="17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J9" s="18">
         <v>1238</v>
@@ -1845,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P9">
         <v>300</v>
@@ -1862,9 +1842,9 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -1881,7 +1861,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
       <c r="I10" s="17" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J10" s="18">
         <v>1596</v>
@@ -1893,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P10">
         <v>450</v>
@@ -1910,9 +1890,9 @@
       <c r="V10" s="21"/>
       <c r="W10" s="22"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -1929,7 +1909,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
       <c r="I11" s="17" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J11" s="18">
         <v>2146</v>
@@ -1941,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P11">
         <v>600</v>
@@ -1958,9 +1938,9 @@
       <c r="V11" s="21"/>
       <c r="W11" s="22"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -1977,7 +1957,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="8"/>
       <c r="I12" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" s="18">
         <v>1847</v>
@@ -1989,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>-650</v>
@@ -2006,9 +1986,9 @@
       <c r="V12" s="21"/>
       <c r="W12" s="22"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C13" s="12">
         <v>2</v>
@@ -2025,7 +2005,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J13" s="18">
         <v>2119</v>
@@ -2045,9 +2025,9 @@
       <c r="V13" s="21"/>
       <c r="W13" s="22"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -2064,7 +2044,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="8"/>
       <c r="I14" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14" s="18">
         <v>4215</v>
@@ -2087,9 +2067,9 @@
       <c r="V14" s="21"/>
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C15" s="12">
         <v>2</v>
@@ -2106,7 +2086,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="8"/>
       <c r="I15" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="18">
         <v>4268</v>
@@ -2129,9 +2109,9 @@
       <c r="V15" s="21"/>
       <c r="W15" s="22"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
@@ -2148,7 +2128,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="8"/>
       <c r="I16" s="19" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J16" s="18">
         <v>4122</v>
@@ -2171,9 +2151,9 @@
       <c r="V16" s="21"/>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23">
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C17" s="12">
         <v>3</v>
@@ -2213,9 +2193,9 @@
       <c r="V17" s="21"/>
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23">
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
@@ -2232,7 +2212,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="8"/>
       <c r="I18" s="17" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="J18" s="18">
         <v>133</v>
@@ -2252,9 +2232,9 @@
       <c r="V18" s="21"/>
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23">
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C19" s="12">
         <v>3</v>
@@ -2283,9 +2263,9 @@
       <c r="V19" s="21"/>
       <c r="W19" s="22"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23">
       <c r="B20" s="11" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -2302,7 +2282,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="8"/>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T20" s="10">
         <v>20</v>
@@ -2313,9 +2293,9 @@
       <c r="V20" s="21"/>
       <c r="W20" s="22"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23">
       <c r="B21" s="11" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12">
         <v>3</v>
@@ -2332,7 +2312,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="8"/>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T21" s="10">
         <v>21</v>
@@ -2343,9 +2323,9 @@
       <c r="V21" s="21"/>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:23">
       <c r="B22" s="11" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C22" s="12">
         <v>3</v>
@@ -2370,9 +2350,9 @@
       <c r="V22" s="21"/>
       <c r="W22" s="22"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -2397,9 +2377,9 @@
       <c r="V23" s="21"/>
       <c r="W23" s="22"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -2424,9 +2404,9 @@
       <c r="V24" s="21"/>
       <c r="W24" s="22"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2451,9 +2431,9 @@
       <c r="V25" s="21"/>
       <c r="W25" s="22"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2480,9 +2460,9 @@
       <c r="V26" s="21"/>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -2509,9 +2489,9 @@
       <c r="V27" s="21"/>
       <c r="W27" s="22"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -2538,9 +2518,9 @@
       <c r="V28" s="21"/>
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -2572,9 +2552,9 @@
       <c r="V29" s="21"/>
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2606,9 +2586,9 @@
       <c r="V30" s="21"/>
       <c r="W30" s="22"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2640,9 +2620,9 @@
       <c r="V31" s="21"/>
       <c r="W31" s="22"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2674,9 +2654,9 @@
       <c r="V32" s="21"/>
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:23">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2708,9 +2688,9 @@
       <c r="V33" s="16"/>
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2742,9 +2722,9 @@
       <c r="V34" s="16"/>
       <c r="W34" s="22"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2776,9 +2756,9 @@
       <c r="V35" s="16"/>
       <c r="W35" s="22"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2810,9 +2790,9 @@
       <c r="V36" s="16"/>
       <c r="W36" s="22"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2844,7 +2824,7 @@
       <c r="V37" s="16"/>
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2861,7 +2841,7 @@
       <c r="V38" s="16"/>
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2878,7 +2858,7 @@
       <c r="V39" s="16"/>
       <c r="W39" s="22"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2895,7 +2875,7 @@
       <c r="V40" s="16"/>
       <c r="W40" s="22"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2912,7 +2892,7 @@
       <c r="V41" s="16"/>
       <c r="W41" s="22"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2929,7 +2909,7 @@
       <c r="V42" s="16"/>
       <c r="W42" s="22"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2946,7 +2926,7 @@
       <c r="V43" s="16"/>
       <c r="W43" s="22"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -2963,7 +2943,7 @@
       <c r="V44" s="16"/>
       <c r="W44" s="22"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -2972,7 +2952,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -2981,59 +2961,59 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23">
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23">
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="12:13">
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="12:13">
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="12:13">
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="12:13">
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="12:13">
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="12:13">
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="12:13">
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="12:13">
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="12:13">
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="12:13">
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="12:13">
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="12:13">
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
@@ -3051,103 +3031,103 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="B2" s="12" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T4" s="10">
         <v>1</v>
@@ -3157,9 +3137,9 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -3176,7 +3156,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
       <c r="I5" s="17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J5" s="18">
         <v>1157</v>
@@ -3188,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3204,9 +3184,9 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -3223,7 +3203,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="8"/>
       <c r="I6" s="17" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J6" s="18">
         <v>1554</v>
@@ -3235,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <v>80</v>
@@ -3251,9 +3231,9 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -3270,7 +3250,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="17" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J7" s="18">
         <v>1676</v>
@@ -3282,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P7">
         <v>-150</v>
@@ -3298,9 +3278,9 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -3317,7 +3297,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="8"/>
       <c r="I8" s="17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18">
         <v>2087</v>
@@ -3329,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="P8">
         <v>150</v>
@@ -3344,9 +3324,9 @@
         <v>-3.16E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -3363,7 +3343,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
       <c r="I9" s="17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J9" s="18">
         <v>1238</v>
@@ -3375,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P9">
         <v>300</v>
@@ -3390,9 +3370,9 @@
         <v>-2.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -3409,7 +3389,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
       <c r="I10" s="17" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J10" s="18">
         <v>1596</v>
@@ -3421,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P10">
         <v>450</v>
@@ -3436,9 +3416,9 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -3455,7 +3435,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
       <c r="I11" s="17" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J11" s="18">
         <v>2146</v>
@@ -3467,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P11">
         <v>600</v>
@@ -3482,9 +3462,9 @@
         <v>-1.98E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -3501,7 +3481,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="8"/>
       <c r="I12" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" s="18">
         <v>1847</v>
@@ -3513,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>-650</v>
@@ -3528,9 +3508,9 @@
         <v>-1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C13" s="12">
         <v>2</v>
@@ -3546,7 +3526,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J13" s="18">
         <v>2119</v>
@@ -3564,9 +3544,9 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -3582,7 +3562,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14" s="18">
         <v>4215</v>
@@ -3603,9 +3583,9 @@
         <v>-1.41E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C15" s="12">
         <v>2</v>
@@ -3621,7 +3601,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="18">
         <v>4268</v>
@@ -3642,9 +3622,9 @@
         <v>-1.2199999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
@@ -3660,7 +3640,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="19" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J16" s="18">
         <v>4122</v>
@@ -3681,9 +3661,9 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21">
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C17" s="12">
         <v>3</v>
@@ -3720,9 +3700,9 @@
         <v>-8.8000000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21">
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
@@ -3738,7 +3718,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="I18" s="17" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="J18" s="18">
         <v>133</v>
@@ -3756,9 +3736,9 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21">
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C19" s="12">
         <v>3</v>
@@ -3784,9 +3764,9 @@
         <v>-5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21">
       <c r="B20" s="11" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -3802,7 +3782,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T20" s="10">
         <v>20</v>
@@ -3811,9 +3791,9 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21">
       <c r="B21" s="11" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12">
         <v>3</v>
@@ -3829,7 +3809,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T21" s="10">
         <v>21</v>
@@ -3838,9 +3818,9 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21">
       <c r="B22" s="11" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C22" s="12">
         <v>3</v>
@@ -3862,9 +3842,9 @@
         <v>-9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3886,9 +3866,9 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -3910,9 +3890,9 @@
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3934,9 +3914,9 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3960,9 +3940,9 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -3986,9 +3966,9 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4012,9 +3992,9 @@
         <v>8.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4044,9 +4024,9 @@
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4075,9 +4055,9 @@
         <v>1.47E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4106,9 +4086,9 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4137,9 +4117,9 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:21">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4168,9 +4148,9 @@
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:21">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4199,9 +4179,9 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:21">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4230,9 +4210,9 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:21">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4261,9 +4241,9 @@
         <v>2.4099999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:21">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -4292,7 +4272,7 @@
         <v>2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:21">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -4307,7 +4287,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:21">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -4322,7 +4302,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:21">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -4337,7 +4317,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:21">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -4352,7 +4332,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:21">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -4367,7 +4347,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:21">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -4382,7 +4362,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:21">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -4397,7 +4377,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:21">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -4406,7 +4386,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:21">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -4429,103 +4409,103 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T4" s="10">
         <v>1</v>
@@ -4535,9 +4515,9 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -4554,7 +4534,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
       <c r="I5" s="17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J5" s="18">
         <v>1157</v>
@@ -4566,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4582,9 +4562,9 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -4601,7 +4581,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="8"/>
       <c r="I6" s="17" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J6" s="18">
         <v>1574</v>
@@ -4613,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <v>80</v>
@@ -4629,9 +4609,9 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -4648,7 +4628,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="17" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J7" s="18">
         <v>1737</v>
@@ -4660,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P7">
         <v>-150</v>
@@ -4676,9 +4656,9 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -4695,7 +4675,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="8"/>
       <c r="I8" s="17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18">
         <v>2119</v>
@@ -4707,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="P8">
         <v>150</v>
@@ -4722,9 +4702,9 @@
         <v>-3.15E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -4741,7 +4721,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
       <c r="I9" s="17" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J9" s="18">
         <v>1239</v>
@@ -4753,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P9">
         <v>300</v>
@@ -4768,9 +4748,9 @@
         <v>-2.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -4787,7 +4767,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
       <c r="I10" s="17" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J10" s="18">
         <v>1657</v>
@@ -4799,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P10">
         <v>450</v>
@@ -4814,9 +4794,9 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -4833,7 +4813,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
       <c r="I11" s="17" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J11" s="18">
         <v>2223</v>
@@ -4845,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P11">
         <v>600</v>
@@ -4860,9 +4840,9 @@
         <v>-1.98E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -4879,7 +4859,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="8"/>
       <c r="I12" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" s="18">
         <v>1832</v>
@@ -4891,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>-650</v>
@@ -4906,9 +4886,9 @@
         <v>-1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C13" s="12">
         <v>2</v>
@@ -4924,7 +4904,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J13" s="18">
         <v>2115</v>
@@ -4942,9 +4922,9 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -4960,7 +4940,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14" s="18">
         <v>4109</v>
@@ -4981,9 +4961,9 @@
         <v>-1.4E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C15" s="12">
         <v>2</v>
@@ -4999,7 +4979,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="18">
         <v>4144</v>
@@ -5020,9 +5000,9 @@
         <v>-1.2099999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
@@ -5038,7 +5018,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="19" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J16" s="18">
         <v>3992</v>
@@ -5059,9 +5039,9 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21">
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C17" s="12">
         <v>3</v>
@@ -5098,9 +5078,9 @@
         <v>-8.8000000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21">
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
@@ -5116,7 +5096,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="I18" s="17" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="J18" s="18">
         <v>133</v>
@@ -5134,9 +5114,9 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21">
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C19" s="12">
         <v>3</v>
@@ -5162,9 +5142,9 @@
         <v>-5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21">
       <c r="B20" s="11" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -5180,7 +5160,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T20" s="10">
         <v>20</v>
@@ -5189,9 +5169,9 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21">
       <c r="B21" s="11" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12">
         <v>3</v>
@@ -5207,7 +5187,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T21" s="10">
         <v>21</v>
@@ -5216,9 +5196,9 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21">
       <c r="B22" s="11" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C22" s="12">
         <v>3</v>
@@ -5240,9 +5220,9 @@
         <v>-9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -5264,9 +5244,9 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -5288,9 +5268,9 @@
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -5312,9 +5292,9 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -5338,9 +5318,9 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -5364,9 +5344,9 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -5390,9 +5370,9 @@
         <v>8.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -5422,9 +5402,9 @@
         <v>9.7999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -5453,9 +5433,9 @@
         <v>1.47E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -5484,9 +5464,9 @@
         <v>1.6100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5515,9 +5495,9 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:21">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5546,9 +5526,9 @@
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:21">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5577,9 +5557,9 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:21">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5608,9 +5588,9 @@
         <v>2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:21">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5639,9 +5619,9 @@
         <v>2.4099999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:21">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5670,7 +5650,7 @@
         <v>2.5600000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:21">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -5685,7 +5665,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:21">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -5700,7 +5680,7 @@
         <v>2.8700000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:21">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -5715,7 +5695,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:21">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5730,7 +5710,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:21">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -5745,7 +5725,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:21">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -5760,7 +5740,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:21">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5775,7 +5755,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:21">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -5784,7 +5764,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:21">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -5807,104 +5787,104 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T4" s="10">
         <v>1</v>
@@ -5914,9 +5894,9 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5933,7 +5913,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J5">
         <v>1157</v>
@@ -5945,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -5961,9 +5941,9 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -5980,7 +5960,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="8"/>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J6">
         <v>1554</v>
@@ -5992,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <v>80</v>
@@ -6008,9 +5988,9 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -6027,7 +6007,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>1676</v>
@@ -6039,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P7">
         <v>-150</v>
@@ -6055,9 +6035,9 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -6074,7 +6054,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="8"/>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <v>2087</v>
@@ -6086,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="P8">
         <v>150</v>
@@ -6101,9 +6081,9 @@
         <v>-3.14E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -6120,7 +6100,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>1238</v>
@@ -6132,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P9">
         <v>300</v>
@@ -6147,9 +6127,9 @@
         <v>-2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -6166,7 +6146,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J10">
         <v>1596</v>
@@ -6178,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P10">
         <v>450</v>
@@ -6193,9 +6173,9 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -6212,7 +6192,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J11">
         <v>2146</v>
@@ -6224,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P11">
         <v>600</v>
@@ -6240,9 +6220,9 @@
       </c>
       <c r="V11" s="15"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -6259,7 +6239,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="8"/>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12">
         <v>1847</v>
@@ -6271,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>-650</v>
@@ -6287,9 +6267,9 @@
       </c>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -6305,7 +6285,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>2119</v>
@@ -6324,9 +6304,9 @@
       </c>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -6342,7 +6322,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>4221</v>
@@ -6363,9 +6343,9 @@
         <v>-1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -6381,7 +6361,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15">
         <v>4276</v>
@@ -6402,9 +6382,9 @@
         <v>-1.17E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -6420,7 +6400,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J16">
         <v>4133</v>
@@ -6441,9 +6421,9 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -6480,9 +6460,9 @@
         <v>-8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -6498,7 +6478,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="J18">
         <v>133</v>
@@ -6516,9 +6496,9 @@
         <v>-6.8000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -6544,9 +6524,9 @@
         <v>-5.1999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -6562,7 +6542,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T20" s="10">
         <v>20</v>
@@ -6571,9 +6551,9 @@
         <v>-3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21">
       <c r="B21" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -6589,7 +6569,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T21" s="10">
         <v>21</v>
@@ -6598,9 +6578,9 @@
         <v>-2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -6622,9 +6602,9 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -6646,9 +6626,9 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -6670,9 +6650,9 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -6698,9 +6678,9 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -6727,9 +6707,9 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C27" s="15">
         <v>4</v>
@@ -6756,9 +6736,9 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C28" s="15">
         <v>4</v>
@@ -6785,9 +6765,9 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C29" s="15">
         <v>4</v>
@@ -6817,9 +6797,9 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C30" s="15">
         <v>4</v>
@@ -6848,9 +6828,9 @@
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C31" s="15">
         <v>4</v>
@@ -6879,9 +6859,9 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C32" s="15">
         <v>4</v>
@@ -6910,9 +6890,9 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:21">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C33" s="15">
         <v>4</v>
@@ -6941,9 +6921,9 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:21">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C34" s="15">
         <v>4</v>
@@ -6972,9 +6952,9 @@
         <v>2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:21">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C35" s="15">
         <v>4</v>
@@ -7003,9 +6983,9 @@
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:21">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C36" s="15">
         <v>4</v>
@@ -7034,9 +7014,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:21">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C37" s="15">
         <v>4</v>
@@ -7065,7 +7045,7 @@
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:21">
       <c r="I38" s="3"/>
       <c r="J38" s="23"/>
       <c r="K38" s="24"/>
@@ -7080,7 +7060,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:21">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -7095,7 +7075,7 @@
         <v>2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:21">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -7110,7 +7090,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:21">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -7125,7 +7105,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:21">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -7140,7 +7120,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:21">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -7155,7 +7135,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:21">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -7170,7 +7150,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:21">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -7179,7 +7159,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:21">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -7202,103 +7182,103 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T4" s="10">
         <v>1</v>
@@ -7308,9 +7288,9 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -7327,7 +7307,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J5">
         <v>1157</v>
@@ -7339,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -7355,9 +7335,9 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -7374,7 +7354,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="8"/>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J6">
         <v>1554</v>
@@ -7386,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <v>80</v>
@@ -7402,9 +7382,9 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -7421,7 +7401,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>1676</v>
@@ -7433,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="P7">
         <v>-150</v>
@@ -7449,9 +7429,9 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -7468,7 +7448,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="8"/>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <v>2087</v>
@@ -7480,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="P8">
         <v>150</v>
@@ -7495,9 +7475,9 @@
         <v>-3.14E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -7514,7 +7494,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>1238</v>
@@ -7526,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="P9">
         <v>300</v>
@@ -7541,9 +7521,9 @@
         <v>-2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -7560,7 +7540,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J10">
         <v>1596</v>
@@ -7572,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P10">
         <v>450</v>
@@ -7587,9 +7567,9 @@
         <v>-2.7399999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C11" s="12">
         <v>2</v>
@@ -7606,7 +7586,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="8"/>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J11">
         <v>2146</v>
@@ -7618,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P11">
         <v>600</v>
@@ -7633,9 +7613,9 @@
         <v>-1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
@@ -7652,7 +7632,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="8"/>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12">
         <v>1847</v>
@@ -7664,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>-650</v>
@@ -7679,9 +7659,9 @@
         <v>-1.74E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C13" s="12">
         <v>2</v>
@@ -7697,7 +7677,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J13">
         <v>2119</v>
@@ -7715,9 +7695,9 @@
         <v>-1.5499999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
@@ -7733,7 +7713,7 @@
       </c>
       <c r="G14" s="2"/>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J14">
         <v>4221</v>
@@ -7754,9 +7734,9 @@
         <v>-1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C15" s="12">
         <v>2</v>
@@ -7772,7 +7752,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15">
         <v>4276</v>
@@ -7793,9 +7773,9 @@
         <v>-1.17E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
@@ -7811,7 +7791,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J16">
         <v>4133</v>
@@ -7832,9 +7812,9 @@
         <v>-9.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21">
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C17" s="12">
         <v>3</v>
@@ -7871,9 +7851,9 @@
         <v>-8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21">
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C18" s="12">
         <v>3</v>
@@ -7889,7 +7869,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="J18">
         <v>133</v>
@@ -7907,9 +7887,9 @@
         <v>-6.8000000000000005E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21">
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C19" s="12">
         <v>3</v>
@@ -7935,9 +7915,9 @@
         <v>-5.1999999999999995E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21">
       <c r="B20" s="11" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -7953,7 +7933,7 @@
       </c>
       <c r="G20" s="2"/>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T20" s="10">
         <v>20</v>
@@ -7962,9 +7942,9 @@
         <v>-3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21">
       <c r="B21" s="11" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12">
         <v>3</v>
@@ -7980,7 +7960,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T21" s="10">
         <v>21</v>
@@ -7989,9 +7969,9 @@
         <v>-2.2000000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21">
       <c r="B22" s="11" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C22" s="12">
         <v>3</v>
@@ -8013,9 +7993,9 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -8037,9 +8017,9 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -8061,9 +8041,9 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -8085,9 +8065,9 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -8111,9 +8091,9 @@
         <v>5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -8137,9 +8117,9 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21">
       <c r="B28" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -8163,9 +8143,9 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -8195,9 +8175,9 @@
         <v>9.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -8226,9 +8206,9 @@
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -8257,9 +8237,9 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -8288,9 +8268,9 @@
         <v>1.7600000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:21">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -8319,9 +8299,9 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:21">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -8350,9 +8330,9 @@
         <v>2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:21">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -8381,9 +8361,9 @@
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:21">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -8412,9 +8392,9 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:21">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -8443,7 +8423,7 @@
         <v>2.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:21">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -8458,7 +8438,7 @@
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:21">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -8473,7 +8453,7 @@
         <v>2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:21">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -8488,7 +8468,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:21">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -8503,7 +8483,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:21">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -8518,7 +8498,7 @@
         <v>3.32E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:21">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -8533,7 +8513,7 @@
         <v>3.47E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:21">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -8548,7 +8528,7 @@
         <v>3.63E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:21">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -8557,7 +8537,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:21">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -8580,103 +8560,103 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5">
         <v>45775</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="T4" s="10">
         <v>1</v>
@@ -8686,9 +8666,9 @@
       </c>
       <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
@@ -8705,7 +8685,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J5">
         <v>988</v>
@@ -8717,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -8733,9 +8713,9 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -8752,7 +8732,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="8"/>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J6">
         <v>1513</v>
@@ -8764,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="P6">
         <v>-679</v>
@@ -8780,9 +8760,9 @@
       </c>
       <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
@@ -8799,7 +8779,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="J7">
         <v>1715</v>
@@ -8811,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="P7">
         <v>-340</v>
@@ -8827,9 +8807,9 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="B8" s="11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
@@ -8846,7 +8826,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="8"/>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J8">
         <v>985</v>
@@ -8858,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P8">
         <v>-220</v>
@@ -8873,9 +8853,9 @@
         <v>-3.13E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
@@ -8892,7 +8872,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="8"/>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <v>1381</v>
@@ -8904,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="P9">
         <v>-110</v>
@@ -8919,9 +8899,9 @@
         <v>-2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="B10" s="11" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
         <v>2</v>
@@ -8938,7 +8918,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="8"/>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>1760</v>
@@ -8950,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="P10">
         <v>120</v>
@@ -8965,9 +8945,9 @@
         <v>-2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C11" s="12">
         <v>3</v>
@@ -8983,7 +8963,7 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J11">
         <v>3665</v>
@@ -8998,7 +8978,7 @@
         <v>3.7690000000000002E-3</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="P11">
         <v>230</v>
@@ -9013,9 +8993,9 @@
         <v>-1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="B12" s="12" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C12" s="12">
         <v>3</v>
@@ -9031,7 +9011,7 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="J12">
         <v>334</v>
@@ -9043,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="P12">
         <v>342</v>
@@ -9058,9 +9038,9 @@
         <v>-1.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="B13" s="12" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C13" s="12">
         <v>3</v>
@@ -9085,9 +9065,9 @@
         <v>-1.32E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="B14" s="11" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C14" s="12">
         <v>3</v>
@@ -9108,9 +9088,9 @@
         <v>-1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="B15" s="11" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C15" s="12">
         <v>3</v>
@@ -9131,9 +9111,9 @@
         <v>-8.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C16" s="12">
         <v>3</v>
@@ -9158,9 +9138,9 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21">
       <c r="B17" s="11" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C17" s="12">
         <v>4</v>
@@ -9185,9 +9165,9 @@
         <v>-5.5999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21">
       <c r="B18" s="11" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C18" s="12">
         <v>4</v>
@@ -9212,9 +9192,9 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21">
       <c r="B19" s="11" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C19" s="12">
         <v>4</v>
@@ -9239,9 +9219,9 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21">
       <c r="B20" s="11" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C20" s="12">
         <v>4</v>
@@ -9256,7 +9236,7 @@
         <v>-1.79</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T20" s="10">
         <v>19</v>
@@ -9265,9 +9245,9 @@
         <v>-9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21">
       <c r="B21" s="11" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C21" s="12">
         <v>4</v>
@@ -9282,7 +9262,7 @@
         <v>-2.12</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="T21" s="10">
         <v>20</v>
@@ -9291,9 +9271,9 @@
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21">
       <c r="B22" s="11" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C22" s="12">
         <v>4</v>
@@ -9314,7 +9294,7 @@
         <v>2.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21">
       <c r="T23" s="10">
         <v>22</v>
       </c>
@@ -9322,7 +9302,7 @@
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21">
       <c r="T24" s="10">
         <v>23</v>
       </c>
@@ -9330,7 +9310,7 @@
         <v>5.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21">
       <c r="T25" s="10">
         <v>24</v>
       </c>
@@ -9338,7 +9318,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21">
       <c r="I26" s="3"/>
       <c r="J26" s="13"/>
       <c r="T26" s="10">
@@ -9348,7 +9328,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21">
       <c r="I27" s="3"/>
       <c r="J27" s="13"/>
       <c r="T27" s="10">
@@ -9358,7 +9338,7 @@
         <v>9.3999999999999997E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21">
       <c r="I28" s="3"/>
       <c r="J28" s="13"/>
       <c r="T28" s="10">
@@ -9368,7 +9348,7 @@
         <v>1.4400000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21">
       <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -9384,7 +9364,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -9399,7 +9379,7 @@
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:21">
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -9414,7 +9394,7 @@
         <v>1.91E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:21">
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -9429,7 +9409,7 @@
         <v>2.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="9:21">
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -9444,7 +9424,7 @@
         <v>2.2300000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="9:21">
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -9459,7 +9439,7 @@
         <v>2.3900000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="9:21">
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -9474,7 +9454,7 @@
         <v>2.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="9:21">
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -9489,7 +9469,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="9:21">
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -9504,7 +9484,7 @@
         <v>2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="9:21">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -9519,7 +9499,7 @@
         <v>3.0100000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="9:21">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -9534,7 +9514,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="9:21">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -9549,7 +9529,7 @@
         <v>3.3300000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="9:21">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -9564,7 +9544,7 @@
         <v>3.48E-3</v>
       </c>
     </row>
-    <row r="42" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="9:21">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -9579,7 +9559,7 @@
         <v>3.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="9:21">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -9594,7 +9574,7 @@
         <v>3.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="9:21">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -9603,7 +9583,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="9:21">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -9612,7 +9592,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="9:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="9:21">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -9636,17 +9616,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="76e64edb-32a9-4bd8-890d-966d9c8cf775" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bde7285c-543e-4d4d-895c-5ed4d7e37669">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DA7076DB38B3440BB574BC603F37FD2" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3b9f19aadfb3d52754bb5ed88d8087a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bde7285c-543e-4d4d-895c-5ed4d7e37669" xmlns:ns3="76e64edb-32a9-4bd8-890d-966d9c8cf775" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a41b2142534db4db9e5f9b6fa67decc0" ns2:_="" ns3:_="">
     <xsd:import namespace="bde7285c-543e-4d4d-895c-5ed4d7e37669"/>
@@ -9841,42 +9810,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="76e64edb-32a9-4bd8-890d-966d9c8cf775" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bde7285c-543e-4d4d-895c-5ed4d7e37669">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FED7717-A765-4685-A00E-1C9CE0F8541A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FED7717-A765-4685-A00E-1C9CE0F8541A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70DE23E-6E6B-498E-8A39-4CE4523AC3F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76e64edb-32a9-4bd8-890d-966d9c8cf775"/>
-    <ds:schemaRef ds:uri="bde7285c-543e-4d4d-895c-5ed4d7e37669"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A22133-F215-4C3A-9C62-5E1A30DD625B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A22133-F215-4C3A-9C62-5E1A30DD625B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bde7285c-543e-4d4d-895c-5ed4d7e37669"/>
-    <ds:schemaRef ds:uri="76e64edb-32a9-4bd8-890d-966d9c8cf775"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F70DE23E-6E6B-498E-8A39-4CE4523AC3F2}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
